--- a/biology/Zoologie/Épervier_à_gorge_grise/Épervier_à_gorge_grise.xlsx
+++ b/biology/Zoologie/Épervier_à_gorge_grise/Épervier_à_gorge_grise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_gorge_grise</t>
+          <t>Épervier_à_gorge_grise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Accipiter erythrauchen
 L’Épervier à gorge grise (Accipiter erythrauchen), ou Épervier des Moluques est une espèce de rapace de la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_gorge_grise</t>
+          <t>Épervier_à_gorge_grise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau est un rapace diurne[1]. Sa silhouette se caractérise par un de longues pattes, une queue plutôt brève et des ailes relativement pointues. Il est également doté d'un bec puissant[1].
-Les individus adultes, le plumage du dos varie du gris au noir avec un cou de couleur rousse. Pour ce qui est des juvéniles, ils arborent un plumage brun dont le pourtour est roux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est un rapace diurne. Sa silhouette se caractérise par un de longues pattes, une queue plutôt brève et des ailes relativement pointues. Il est également doté d'un bec puissant.
+Les individus adultes, le plumage du dos varie du gris au noir avec un cou de couleur rousse. Pour ce qui est des juvéniles, ils arborent un plumage brun dont le pourtour est roux.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_gorge_grise</t>
+          <t>Épervier_à_gorge_grise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau est endémique des Moluques, plus précisémeent des îles de Morotai, Halmahera, Bacan, Obi, Buru, Ambon et Ceram[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est endémique des Moluques, plus précisémeent des îles de Morotai, Halmahera, Bacan, Obi, Buru, Ambon et Ceram.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_gorge_grise</t>
+          <t>Épervier_à_gorge_grise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il habite les forêts humides tropicales et subtropicales. On peut le retrouver dans des régions vallonnées comme plus basses[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite les forêts humides tropicales et subtropicales. On peut le retrouver dans des régions vallonnées comme plus basses.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_gorge_grise</t>
+          <t>Épervier_à_gorge_grise</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Accipiter erythrauchen ceramensis (Schlegel) 1862
